--- a/03a_Delta/04_Otros/08_Taller_RobotDelta/Estudiantes.xlsx
+++ b/03a_Delta/04_Otros/08_Taller_RobotDelta/Estudiantes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LMAG\Documents\MecanismosPythonUPB\03a_Delta\04_Otros\08_Taller_RobotDelta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\000092114\Documents\MecanismosPythonUPB\03a_Delta\04_Otros\08_Taller_RobotDelta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B263DA89-EB8A-42A2-B737-67CDC9410E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E01387C-1397-4761-AFB5-6CDE464B4413}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B8024D5-D2CD-4F16-AC49-88DDC0870749}"/>
   </bookViews>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -38,66 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
-    <t>AGUDELO FERIZ, VALENTINA</t>
-  </si>
-  <si>
-    <t>CHACON GALLEGO, DAVID</t>
-  </si>
-  <si>
-    <t>GALLEGO ALZATE, DANIEL</t>
-  </si>
-  <si>
-    <t>MADRID RANGEL, JUAN M.</t>
-  </si>
-  <si>
-    <t>ORTEGA CASTAÑO, SEBASTIAN</t>
-  </si>
-  <si>
-    <t>OSPINA JARAMILLO, PABLO</t>
-  </si>
-  <si>
-    <t>REGALADO CHICAIZA, SEBASTIAN M.</t>
-  </si>
-  <si>
-    <t>RINCON GUTIERREZ, DANIEL</t>
-  </si>
-  <si>
-    <t>SIERRA GUERRERO, JOSE F.</t>
-  </si>
-  <si>
-    <t>TAMAYO AGUDELO, DAVID</t>
-  </si>
-  <si>
-    <t>VAHOS SERNA, JULIO C.</t>
-  </si>
-  <si>
-    <t>VEGA RODRIGUEZ, SANTIAGO</t>
-  </si>
-  <si>
-    <t>WHITE RESTREPO, TOMAS</t>
-  </si>
-  <si>
-    <t>ZULUAGA ARISTIZABAL, ANDRES</t>
-  </si>
-  <si>
-    <t>CALAO JIMENEZ, VALENTINA</t>
-  </si>
-  <si>
-    <t>JAIME ALZATE, CRISTIAN CAMILO</t>
-  </si>
-  <si>
-    <t>PEREZ DE LOS RIOS, LEONARDO</t>
-  </si>
-  <si>
-    <t>ROMERO CASTILLO, SARA C.</t>
-  </si>
-  <si>
-    <t>SILVA RIOS, VALERIA</t>
-  </si>
-  <si>
-    <t>VANEGAS DIAZ, SOFIA</t>
-  </si>
-  <si>
     <t>Est</t>
   </si>
   <si>
@@ -105,6 +34,66 @@
   </si>
   <si>
     <t>grupo</t>
+  </si>
+  <si>
+    <t>BUITRAGO MEDINA, JUAN C.</t>
+  </si>
+  <si>
+    <t>HERNANDEZ JIMENEZ, ANA M.</t>
+  </si>
+  <si>
+    <t>JIMENEZ GIRALDO, JUAN P.</t>
+  </si>
+  <si>
+    <t>MARIN ARROYAVE, JUAN J.</t>
+  </si>
+  <si>
+    <t>MARIN ZABALA, STEPHANIA</t>
+  </si>
+  <si>
+    <t>MURIEL AGUDELO, SARA P.</t>
+  </si>
+  <si>
+    <t>PEÑARANDA BOTELLO, DEIMER L.</t>
+  </si>
+  <si>
+    <t>ROJAS VASQUEZ, JUAN C.</t>
+  </si>
+  <si>
+    <t>SOTO JARAMILLO, JUAN J.</t>
+  </si>
+  <si>
+    <t>TOBON PEÑA, MARIA J.</t>
+  </si>
+  <si>
+    <t>VALERA MASS, JOSE A.</t>
+  </si>
+  <si>
+    <t>CASTRO AGUDELO, SAMUEL E.</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ VERGARA, ELBA LUCIA</t>
+  </si>
+  <si>
+    <t>GUISAO LOPEZ, JULIAN</t>
+  </si>
+  <si>
+    <t>HERRERA ESTRADA, SANTIAGO</t>
+  </si>
+  <si>
+    <t>MEJIA TAMAYO , SANTIAGO</t>
+  </si>
+  <si>
+    <t>MENESES MONTOYA, SANTIAGO</t>
+  </si>
+  <si>
+    <t>RAMIREZ VELEZ, CAMILO</t>
+  </si>
+  <si>
+    <t>TABARES BROWN, TOMAS</t>
+  </si>
+  <si>
+    <t>VASQUEZ MONTOYA, VALERIA</t>
   </si>
 </sst>
 </file>
@@ -686,26 +675,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945C758E-2908-43D8-B361-B800697AD4B6}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -714,9 +703,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -725,9 +714,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
@@ -736,9 +725,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
@@ -747,9 +736,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
@@ -758,9 +747,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" s="7">
         <v>6</v>
@@ -769,9 +758,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5">
         <v>7</v>
@@ -780,9 +769,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6">
         <v>8</v>
@@ -791,9 +780,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" s="7">
         <v>9</v>
@@ -802,9 +791,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" s="6">
         <v>10</v>
@@ -813,9 +802,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" s="7">
         <v>11</v>
@@ -824,9 +813,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13" s="6">
         <v>12</v>
@@ -835,31 +824,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14" s="8">
         <v>13</v>
       </c>
       <c r="C14" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15" s="9">
         <v>14</v>
       </c>
       <c r="C15" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16" s="10">
         <v>15</v>
@@ -868,9 +857,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17" s="10">
         <v>16</v>
@@ -879,31 +868,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18" s="10">
         <v>17</v>
       </c>
       <c r="C18" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19" s="10">
         <v>18</v>
       </c>
       <c r="C19" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20" s="10">
         <v>19</v>
@@ -912,15 +901,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B21" s="10">
         <v>20</v>
       </c>
       <c r="C21" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/03a_Delta/04_Otros/08_Taller_RobotDelta/Estudiantes.xlsx
+++ b/03a_Delta/04_Otros/08_Taller_RobotDelta/Estudiantes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\000092114\Documents\MecanismosPythonUPB\03a_Delta\04_Otros\08_Taller_RobotDelta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LMAG\Documents\MecanismosPythonUPB\03a_Delta\04_Otros\08_Taller_RobotDelta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E01387C-1397-4761-AFB5-6CDE464B4413}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC2371C-ED9B-4616-BCB2-AED695895B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B8024D5-D2CD-4F16-AC49-88DDC0870749}"/>
+    <workbookView xWindow="28680" yWindow="4440" windowWidth="20730" windowHeight="11160" xr2:uid="{4B8024D5-D2CD-4F16-AC49-88DDC0870749}"/>
   </bookViews>
   <sheets>
     <sheet name="Estudiantes" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Est</t>
   </si>
@@ -36,64 +47,40 @@
     <t>grupo</t>
   </si>
   <si>
-    <t>BUITRAGO MEDINA, JUAN C.</t>
-  </si>
-  <si>
-    <t>HERNANDEZ JIMENEZ, ANA M.</t>
-  </si>
-  <si>
-    <t>JIMENEZ GIRALDO, JUAN P.</t>
-  </si>
-  <si>
-    <t>MARIN ARROYAVE, JUAN J.</t>
-  </si>
-  <si>
-    <t>MARIN ZABALA, STEPHANIA</t>
-  </si>
-  <si>
-    <t>MURIEL AGUDELO, SARA P.</t>
-  </si>
-  <si>
-    <t>PEÑARANDA BOTELLO, DEIMER L.</t>
-  </si>
-  <si>
-    <t>ROJAS VASQUEZ, JUAN C.</t>
-  </si>
-  <si>
-    <t>SOTO JARAMILLO, JUAN J.</t>
-  </si>
-  <si>
-    <t>TOBON PEÑA, MARIA J.</t>
-  </si>
-  <si>
-    <t>VALERA MASS, JOSE A.</t>
-  </si>
-  <si>
-    <t>CASTRO AGUDELO, SAMUEL E.</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ VERGARA, ELBA LUCIA</t>
-  </si>
-  <si>
-    <t>GUISAO LOPEZ, JULIAN</t>
-  </si>
-  <si>
-    <t>HERRERA ESTRADA, SANTIAGO</t>
-  </si>
-  <si>
-    <t>MEJIA TAMAYO , SANTIAGO</t>
-  </si>
-  <si>
-    <t>MENESES MONTOYA, SANTIAGO</t>
-  </si>
-  <si>
-    <t>RAMIREZ VELEZ, CAMILO</t>
-  </si>
-  <si>
-    <t>TABARES BROWN, TOMAS</t>
-  </si>
-  <si>
-    <t>VASQUEZ MONTOYA, VALERIA</t>
+    <t>AYALA RESTREPO, FELIPE</t>
+  </si>
+  <si>
+    <t>DIAZ RATO, JUAN</t>
+  </si>
+  <si>
+    <t>GARZON DIAZ, ANDRES D.</t>
+  </si>
+  <si>
+    <t>GRANDA CASTILLO, DANIELA</t>
+  </si>
+  <si>
+    <t>JARAMILLO RAMIREZ, VALERIA</t>
+  </si>
+  <si>
+    <t>JIMENEZ AREIZA, DIEGO A.</t>
+  </si>
+  <si>
+    <t>MORENO MADRID, SAMUEL</t>
+  </si>
+  <si>
+    <t>PASTOR LOPEZ, TOMAS</t>
+  </si>
+  <si>
+    <t>PINEDA SIEGERT, ANA L.</t>
+  </si>
+  <si>
+    <t>ROJAS BARRAGAN, JUAN C.</t>
+  </si>
+  <si>
+    <t>Juan Manuel Valencia</t>
+  </si>
+  <si>
+    <t>Jose Luis Jucht</t>
   </si>
 </sst>
 </file>
@@ -146,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -169,38 +156,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -208,133 +169,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{62D28077-BB12-436B-B438-F3256A3F0398}"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -673,15 +516,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945C758E-2908-43D8-B361-B800697AD4B6}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -692,309 +535,146 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="8">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="9">
-        <v>14</v>
-      </c>
-      <c r="C15" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="10">
-        <v>15</v>
-      </c>
-      <c r="C16" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="10">
-        <v>16</v>
-      </c>
-      <c r="C17" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="27" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="10">
-        <v>17</v>
-      </c>
-      <c r="C18" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="10">
-        <v>18</v>
-      </c>
-      <c r="C19" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="10">
-        <v>19</v>
-      </c>
-      <c r="C20" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="27" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="10">
-        <v>20</v>
-      </c>
-      <c r="C21" s="12">
+      <c r="C13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A14:A21">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$C14="X"</formula>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$C13="X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A17">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$C3="X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>$C8="X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$C10="X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$C9="X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$C2="X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B21">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$C14="X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B4 B6:B7 B9:B21">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$C3="X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$C14="X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$C15="X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2 B5 B8">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$C2="X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C21">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$C14="X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C17">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$C3="X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$C8="X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$C10="X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$C9="X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A2:A12">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$C2="X"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/03a_Delta/04_Otros/08_Taller_RobotDelta/Estudiantes.xlsx
+++ b/03a_Delta/04_Otros/08_Taller_RobotDelta/Estudiantes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LMAG\Documents\MecanismosPythonUPB\03a_Delta\04_Otros\08_Taller_RobotDelta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC2371C-ED9B-4616-BCB2-AED695895B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BD3D21-1B65-4C51-B634-4217A4C65B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4440" windowWidth="20730" windowHeight="11160" xr2:uid="{4B8024D5-D2CD-4F16-AC49-88DDC0870749}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B8024D5-D2CD-4F16-AC49-88DDC0870749}"/>
   </bookViews>
   <sheets>
     <sheet name="Estudiantes" sheetId="1" r:id="rId1"/>
@@ -47,40 +47,40 @@
     <t>grupo</t>
   </si>
   <si>
-    <t>AYALA RESTREPO, FELIPE</t>
-  </si>
-  <si>
-    <t>DIAZ RATO, JUAN</t>
-  </si>
-  <si>
-    <t>GARZON DIAZ, ANDRES D.</t>
-  </si>
-  <si>
-    <t>GRANDA CASTILLO, DANIELA</t>
-  </si>
-  <si>
-    <t>JARAMILLO RAMIREZ, VALERIA</t>
-  </si>
-  <si>
-    <t>JIMENEZ AREIZA, DIEGO A.</t>
-  </si>
-  <si>
-    <t>MORENO MADRID, SAMUEL</t>
-  </si>
-  <si>
-    <t>PASTOR LOPEZ, TOMAS</t>
-  </si>
-  <si>
-    <t>PINEDA SIEGERT, ANA L.</t>
-  </si>
-  <si>
-    <t>ROJAS BARRAGAN, JUAN C.</t>
-  </si>
-  <si>
-    <t>Juan Manuel Valencia</t>
-  </si>
-  <si>
-    <t>Jose Luis Jucht</t>
+    <t>BENAVIDEZ BENITEZ, SARA I.</t>
+  </si>
+  <si>
+    <t>BENITEZ SALCEDO, DONAL D.</t>
+  </si>
+  <si>
+    <t>CHARRY VADOS, DAVID S.</t>
+  </si>
+  <si>
+    <t>DUARTE ARBOLEDA, JUAN M.</t>
+  </si>
+  <si>
+    <t>GRACIANO MAZO, FRANK E.</t>
+  </si>
+  <si>
+    <t>JUCHT PINZON, JOSE L.</t>
+  </si>
+  <si>
+    <t>MOLINA LECOMPTE , EMILIO</t>
+  </si>
+  <si>
+    <t>PALACIO VASQUEZ, GIANFRANCO</t>
+  </si>
+  <si>
+    <t>PULGARIN MUÑOZ, MARIA A.</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ MARULANDA, JOHANNA</t>
+  </si>
+  <si>
+    <t>SERNA GIL, SANTIAGO</t>
+  </si>
+  <si>
+    <t>VALENCIA TORRES, JUAN M.</t>
   </si>
 </sst>
 </file>
@@ -177,28 +177,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{62D28077-BB12-436B-B438-F3256A3F0398}"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -220,9 +199,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -260,7 +239,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -366,7 +345,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -508,7 +487,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -519,7 +498,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -557,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -590,7 +569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -612,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -656,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -668,13 +647,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>$C13="X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A12">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="A2:A13">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2="X"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/03a_Delta/04_Otros/08_Taller_RobotDelta/Estudiantes.xlsx
+++ b/03a_Delta/04_Otros/08_Taller_RobotDelta/Estudiantes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LMAG\Documents\MecanismosPythonUPB\03a_Delta\04_Otros\08_Taller_RobotDelta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\000092114\Documents\MecanismosPythonUPB\03a_Delta\04_Otros\08_Taller_RobotDelta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BD3D21-1B65-4C51-B634-4217A4C65B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B2C90A-B58D-4536-B134-A7BF203E7B0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B8024D5-D2CD-4F16-AC49-88DDC0870749}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Est</t>
   </si>
@@ -47,40 +36,37 @@
     <t>grupo</t>
   </si>
   <si>
-    <t>BENAVIDEZ BENITEZ, SARA I.</t>
-  </si>
-  <si>
-    <t>BENITEZ SALCEDO, DONAL D.</t>
-  </si>
-  <si>
-    <t>CHARRY VADOS, DAVID S.</t>
-  </si>
-  <si>
-    <t>DUARTE ARBOLEDA, JUAN M.</t>
-  </si>
-  <si>
-    <t>GRACIANO MAZO, FRANK E.</t>
-  </si>
-  <si>
-    <t>JUCHT PINZON, JOSE L.</t>
-  </si>
-  <si>
-    <t>MOLINA LECOMPTE , EMILIO</t>
-  </si>
-  <si>
-    <t>PALACIO VASQUEZ, GIANFRANCO</t>
-  </si>
-  <si>
-    <t>PULGARIN MUÑOZ, MARIA A.</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ MARULANDA, JOHANNA</t>
-  </si>
-  <si>
-    <t>SERNA GIL, SANTIAGO</t>
-  </si>
-  <si>
-    <t>VALENCIA TORRES, JUAN M.</t>
+    <t>BULA PIÑERES, JOSE A.</t>
+  </si>
+  <si>
+    <t>DE LA HOZ CABALLERO, CARLOS I.</t>
+  </si>
+  <si>
+    <t>DIAZ MADERA, EMANUEL</t>
+  </si>
+  <si>
+    <t>DURAN PANIAGUA, SAMUEL</t>
+  </si>
+  <si>
+    <t>ORTIZ ATHIAS, GUSTAVO J.</t>
+  </si>
+  <si>
+    <t>RUIZ MAZO, SANTIAGO</t>
+  </si>
+  <si>
+    <t>SOLANO SALAS, MARIA C.</t>
+  </si>
+  <si>
+    <t>TAMARA NUÑEZ, VICTOR M.</t>
+  </si>
+  <si>
+    <t>VARGAS DUQUE, SIMON</t>
+  </si>
+  <si>
+    <t>VERGARA HERNANDEZ, SEBASTIAN</t>
+  </si>
+  <si>
+    <t>VILLEGAS ARANGO, JACOBO E.</t>
   </si>
 </sst>
 </file>
@@ -199,9 +185,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -239,7 +225,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -345,7 +331,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -487,7 +473,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -495,15 +481,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945C758E-2908-43D8-B361-B800697AD4B6}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -525,7 +511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -536,7 +522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -547,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -558,7 +544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -569,7 +555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -580,7 +566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -591,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -602,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -613,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -624,8 +610,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12">
@@ -635,19 +621,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A13">
+  <conditionalFormatting sqref="A2:A12">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2="X"</formula>
     </cfRule>
